--- a/biology/Botanique/Sonchus/Sonchus.xlsx
+++ b/biology/Botanique/Sonchus/Sonchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sonchus (les laiterons) est un genre de plantes à fleurs de la famille des Asteraceae qui poussent souvent dans les zones humides. 
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur nom botanique Sonchus les désignait chez les Romains (également sonchos) et Grecs (sogchos ou sogkos)[1]. Le nom vernaculaire de laiteron, comme celui de laitue, fait référence au latex, lait poisseux lorsqu’on casse les tiges de la plante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur nom botanique Sonchus les désignait chez les Romains (également sonchos) et Grecs (sogchos ou sogkos). Le nom vernaculaire de laiteron, comme celui de laitue, fait référence au latex, lait poisseux lorsqu’on casse les tiges de la plante.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées ou des arbustes d'une hauteur variant de 20 cm à 4 mètres. Ils ont une tige creuse. Les feuilles les plus basses sont vert clair et disposées en rosette. Les suivantes, en forme de lance, sont rigides. Leurs inflorescences sont des capitules jaunes.
 Ils produisent une quantité importante de graines (jusqu’à 100 000 par plante) qui sont transportées par l’eau (hydrochorie) et le vent (anémochorie).
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes nitrophiles, elles aiment les sols riches en azote et supportent mal la tonte.
 </t>
@@ -605,7 +623,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sonchus acaulis Dum.Cours.
@@ -739,7 +759,7 @@
 Sonchus × maynari Svent.
 Sonchus × piquetii Druce
 Sonchus × prudhommei Bouchard
-Sonchus × rokosensis Sutorý[2]
+Sonchus × rokosensis Sutorý
 </t>
         </is>
       </c>
@@ -768,7 +788,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les laiterons étaient souvent consommés jeunes (rosettes) en salade en région méditerranéenne, en particulier le laiteron maraîcher (Sonchus oleraceus) qui, comme son nom l'indique, était cultivé.
 </t>
